--- a/biology/Botanique/Jardin_royal_(château_de_Prague)/Jardin_royal_(château_de_Prague).xlsx
+++ b/biology/Botanique/Jardin_royal_(château_de_Prague)/Jardin_royal_(château_de_Prague).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_royal_(ch%C3%A2teau_de_Prague)</t>
+          <t>Jardin_royal_(château_de_Prague)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Jardin royal (en tchèque : Královská zahrada), situé dans l'enceinte du château de Prague, date de la Renaissance et est à l’origine, un jardin d'acclimatation de plantes exotiques, un champ de tir et un lieu de réception en plein air. Il a une superficie de 3,6 hectares et est séparé du château de Prague par le Fossé aux Cerfs[1]. Il a été fondé par le roi Ferdinand Ier en 1534 sur le site des vignobles médiévaux d’origine. Les jardins ont été conçus dans le style Renaissance et au fil du temps, de nombreux bâtiments y ont été ajoutés.
+Le Jardin royal (en tchèque : Královská zahrada), situé dans l'enceinte du château de Prague, date de la Renaissance et est à l’origine, un jardin d'acclimatation de plantes exotiques, un champ de tir et un lieu de réception en plein air. Il a une superficie de 3,6 hectares et est séparé du château de Prague par le Fossé aux Cerfs. Il a été fondé par le roi Ferdinand Ier en 1534 sur le site des vignobles médiévaux d’origine. Les jardins ont été conçus dans le style Renaissance et au fil du temps, de nombreux bâtiments y ont été ajoutés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_royal_(ch%C3%A2teau_de_Prague)</t>
+          <t>Jardin_royal_(château_de_Prague)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Edifices</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est orné d’une « fontaine chantante » (les gouttes d’eau en tombant dans les vasques de bronze les font résonner) dessinée en 1568 par Francesco Terzio et réalisée par le fondeur de Brno, Tomáš Jaroš. Elle est située en face de l'édifice Renaissance du belvédère de la reine Anne.
 Un Pavillon du jeu de paume de style Renaissance s'y trouve. Orné de splendides sgraffites sur une façade traitée en portique, il est l’œuvre de l’architecte Bonifác Wohlmut (1569). On y trouve encore la villa présidentielle construite dans les années 1930 pour le président tchécoslovaque Edvard Benes.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_royal_(ch%C3%A2teau_de_Prague)</t>
+          <t>Jardin_royal_(château_de_Prague)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Ouverture au public</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin royal est ouvert toute l'année sauf en hiver, pendant la journée.
 </t>
